--- a/Lab 1.3/Requirements Stakeholder Traceability Matrix.xlsx
+++ b/Lab 1.3/Requirements Stakeholder Traceability Matrix.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26924"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27029"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Study\4th\Sem1\PTYC\SE357-Pratice-class\Lab 1.3\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/49de434ea4f7613f/Documents/GitHub/SE357-Pratice-class/Lab 1.3/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{A2CEEF6E-39FD-4CA1-B47A-91A2711D7CD8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="21" documentId="8_{A2CEEF6E-39FD-4CA1-B47A-91A2711D7CD8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{CAE9E534-540D-45F0-AF73-DB6BA83A3A42}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{AB4B07AB-AAFD-4B4A-9B6A-704CCFAB9CF9}"/>
+    <workbookView minimized="1" xWindow="9405" yWindow="870" windowWidth="16965" windowHeight="13800" xr2:uid="{AB4B07AB-AAFD-4B4A-9B6A-704CCFAB9CF9}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="106" uniqueCount="36">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="131" uniqueCount="61">
   <si>
     <t xml:space="preserve">Requirement ID </t>
   </si>
@@ -144,13 +144,88 @@
   </si>
   <si>
     <t>Watch Order History</t>
+  </si>
+  <si>
+    <t>REQ-1</t>
+  </si>
+  <si>
+    <t>REQ-2</t>
+  </si>
+  <si>
+    <t>REQ-3</t>
+  </si>
+  <si>
+    <t>REQ-4</t>
+  </si>
+  <si>
+    <t>REQ-5</t>
+  </si>
+  <si>
+    <t>REQ-6</t>
+  </si>
+  <si>
+    <t>REQ-7</t>
+  </si>
+  <si>
+    <t>REQ-8</t>
+  </si>
+  <si>
+    <t>REQ-9</t>
+  </si>
+  <si>
+    <t>REQ-10</t>
+  </si>
+  <si>
+    <t>REQ-11</t>
+  </si>
+  <si>
+    <t>REQ-12</t>
+  </si>
+  <si>
+    <t>REQ-13</t>
+  </si>
+  <si>
+    <t>REQ-14</t>
+  </si>
+  <si>
+    <t>REQ-15</t>
+  </si>
+  <si>
+    <t>REQ-16</t>
+  </si>
+  <si>
+    <t>REQ-17</t>
+  </si>
+  <si>
+    <t>REQ-18</t>
+  </si>
+  <si>
+    <t>REQ-19</t>
+  </si>
+  <si>
+    <t>REQ-20</t>
+  </si>
+  <si>
+    <t>REQ-21</t>
+  </si>
+  <si>
+    <t>REQ-22</t>
+  </si>
+  <si>
+    <t>REQ-23</t>
+  </si>
+  <si>
+    <t>REQ-24</t>
+  </si>
+  <si>
+    <t>REQ-25</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -180,6 +255,13 @@
       <family val="1"/>
       <scheme val="major"/>
     </font>
+    <font>
+      <sz val="8"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <charset val="163"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -202,7 +284,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
@@ -211,12 +293,185 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Normal 2" xfId="1" xr:uid="{C98E3EE2-A880-4C38-B910-9743B865B634}"/>
   </cellStyles>
-  <dxfs count="0"/>
+  <dxfs count="9">
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <name val="Times New Roman"/>
+        <family val="1"/>
+        <scheme val="none"/>
+      </font>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <name val="Times New Roman"/>
+        <family val="1"/>
+        <scheme val="none"/>
+      </font>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <name val="Times New Roman"/>
+        <family val="1"/>
+        <scheme val="none"/>
+      </font>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <name val="Times New Roman"/>
+        <family val="1"/>
+        <scheme val="none"/>
+      </font>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <name val="Times New Roman"/>
+        <family val="1"/>
+        <scheme val="none"/>
+      </font>
+      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="14"/>
+        <color theme="1"/>
+        <name val="Times New Roman"/>
+        <family val="1"/>
+        <scheme val="major"/>
+      </font>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <name val="Times New Roman"/>
+        <family val="1"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <name val="Times New Roman"/>
+        <family val="1"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <name val="Times New Roman"/>
+        <family val="1"/>
+        <scheme val="none"/>
+      </font>
+      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+  </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
@@ -227,6 +482,22 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{428AE656-5972-420E-8294-B9CD12F50CE3}" name="Table2" displayName="Table2" ref="A1:G26" totalsRowShown="0" headerRowDxfId="5" dataDxfId="6" headerRowCellStyle="Normal 2" dataCellStyle="Normal 2">
+  <autoFilter ref="A1:G26" xr:uid="{428AE656-5972-420E-8294-B9CD12F50CE3}"/>
+  <tableColumns count="7">
+    <tableColumn id="1" xr3:uid="{20451479-ACC1-455E-8A39-775F72120263}" name="Requirement ID " dataDxfId="8" dataCellStyle="Normal 2"/>
+    <tableColumn id="2" xr3:uid="{F3E3441B-5F86-4572-9C63-EC70A5BBA89A}" name="Requirement" dataDxfId="7" dataCellStyle="Normal 2"/>
+    <tableColumn id="3" xr3:uid="{4E007624-4D25-49FB-8E88-446064500C7B}" name="Priority" dataDxfId="4" dataCellStyle="Normal 2"/>
+    <tableColumn id="4" xr3:uid="{D97D6206-8854-495F-9318-51008E117559}" name="Customer" dataDxfId="3" dataCellStyle="Normal 2"/>
+    <tableColumn id="5" xr3:uid="{242CCA99-0AC9-44B6-9A23-774D45B1D803}" name="Employee" dataDxfId="2" dataCellStyle="Normal 2"/>
+    <tableColumn id="6" xr3:uid="{4454013F-4A8B-4DFB-9DEC-AACCCC732860}" name="Admin" dataDxfId="1" dataCellStyle="Normal 2"/>
+    <tableColumn id="7" xr3:uid="{DA32E5B0-1462-45A9-9C7D-19BF71EB123D}" name="Supplier" dataDxfId="0" dataCellStyle="Normal 2"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleLight9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -529,21 +800,20 @@
   <dimension ref="A1:G26"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D7" sqref="D7"/>
+      <selection activeCell="D15" sqref="D15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="18" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="24.5" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="8.5" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="10.796875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="10.59765625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="7.5" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="9.19921875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="22.375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="23.75" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="13" bestFit="1" customWidth="1"/>
+    <col min="4" max="5" width="15.125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="11.75" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="13.625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="17.399999999999999" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:7" ht="18.75" x14ac:dyDescent="0.2">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -566,9 +836,9 @@
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A2" s="3">
-        <v>1</v>
+    <row r="2" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A2" s="3" t="s">
+        <v>36</v>
       </c>
       <c r="B2" s="1" t="s">
         <v>7</v>
@@ -576,20 +846,20 @@
       <c r="C2" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="D2" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="E2" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="F2" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="G2" s="1"/>
-    </row>
-    <row r="3" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A3" s="3">
-        <v>2</v>
+      <c r="D2" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="E2" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="F2" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="G2" s="4"/>
+    </row>
+    <row r="3" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A3" s="3" t="s">
+        <v>37</v>
       </c>
       <c r="B3" s="1" t="s">
         <v>10</v>
@@ -597,20 +867,20 @@
       <c r="C3" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="D3" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="E3" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="F3" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="G3" s="1"/>
-    </row>
-    <row r="4" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A4" s="3">
-        <v>3</v>
+      <c r="D3" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="E3" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="F3" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="G3" s="4"/>
+    </row>
+    <row r="4" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A4" s="3" t="s">
+        <v>38</v>
       </c>
       <c r="B4" s="1" t="s">
         <v>11</v>
@@ -618,18 +888,18 @@
       <c r="C4" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="D4" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="E4" s="1"/>
-      <c r="F4" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="G4" s="1"/>
-    </row>
-    <row r="5" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A5" s="3">
-        <v>4</v>
+      <c r="D4" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="E4" s="4"/>
+      <c r="F4" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="G4" s="4"/>
+    </row>
+    <row r="5" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A5" s="3" t="s">
+        <v>39</v>
       </c>
       <c r="B5" s="1" t="s">
         <v>12</v>
@@ -637,20 +907,20 @@
       <c r="C5" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="D5" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="E5" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="F5" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="G5" s="1"/>
-    </row>
-    <row r="6" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A6" s="3">
-        <v>5</v>
+      <c r="D5" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="E5" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="F5" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="G5" s="4"/>
+    </row>
+    <row r="6" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A6" s="3" t="s">
+        <v>40</v>
       </c>
       <c r="B6" s="1" t="s">
         <v>13</v>
@@ -658,20 +928,20 @@
       <c r="C6" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="D6" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="E6" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="F6" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="G6" s="1"/>
-    </row>
-    <row r="7" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A7" s="3">
-        <v>6</v>
+      <c r="D6" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="E6" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="F6" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="G6" s="4"/>
+    </row>
+    <row r="7" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A7" s="3" t="s">
+        <v>41</v>
       </c>
       <c r="B7" s="1" t="s">
         <v>14</v>
@@ -679,18 +949,18 @@
       <c r="C7" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="D7" s="1"/>
-      <c r="E7" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="F7" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="G7" s="1"/>
-    </row>
-    <row r="8" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A8" s="3">
-        <v>7</v>
+      <c r="D7" s="4"/>
+      <c r="E7" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="F7" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="G7" s="4"/>
+    </row>
+    <row r="8" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A8" s="3" t="s">
+        <v>42</v>
       </c>
       <c r="B8" s="1" t="s">
         <v>16</v>
@@ -698,18 +968,18 @@
       <c r="C8" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="D8" s="1"/>
-      <c r="E8" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="F8" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="G8" s="1"/>
-    </row>
-    <row r="9" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A9" s="3">
-        <v>8</v>
+      <c r="D8" s="4"/>
+      <c r="E8" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="F8" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="G8" s="4"/>
+    </row>
+    <row r="9" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A9" s="3" t="s">
+        <v>43</v>
       </c>
       <c r="B9" s="1" t="s">
         <v>17</v>
@@ -717,18 +987,18 @@
       <c r="C9" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="D9" s="1"/>
-      <c r="E9" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="F9" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="G9" s="1"/>
-    </row>
-    <row r="10" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A10" s="3">
-        <v>9</v>
+      <c r="D9" s="4"/>
+      <c r="E9" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="F9" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="G9" s="4"/>
+    </row>
+    <row r="10" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A10" s="3" t="s">
+        <v>44</v>
       </c>
       <c r="B10" s="1" t="s">
         <v>18</v>
@@ -736,16 +1006,16 @@
       <c r="C10" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="D10" s="1"/>
-      <c r="E10" s="1"/>
-      <c r="F10" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="G10" s="1"/>
-    </row>
-    <row r="11" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A11" s="3">
-        <v>10</v>
+      <c r="D10" s="4"/>
+      <c r="E10" s="4"/>
+      <c r="F10" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="G10" s="4"/>
+    </row>
+    <row r="11" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A11" s="3" t="s">
+        <v>45</v>
       </c>
       <c r="B11" s="1" t="s">
         <v>19</v>
@@ -753,16 +1023,16 @@
       <c r="C11" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="D11" s="1"/>
-      <c r="E11" s="1"/>
-      <c r="F11" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="G11" s="1"/>
-    </row>
-    <row r="12" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A12" s="3">
-        <v>11</v>
+      <c r="D11" s="4"/>
+      <c r="E11" s="4"/>
+      <c r="F11" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="G11" s="4"/>
+    </row>
+    <row r="12" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A12" s="3" t="s">
+        <v>46</v>
       </c>
       <c r="B12" s="1" t="s">
         <v>20</v>
@@ -770,18 +1040,18 @@
       <c r="C12" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="D12" s="1"/>
-      <c r="E12" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="F12" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="G12" s="1"/>
-    </row>
-    <row r="13" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A13" s="3">
-        <v>12</v>
+      <c r="D12" s="4"/>
+      <c r="E12" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="F12" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="G12" s="4"/>
+    </row>
+    <row r="13" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A13" s="3" t="s">
+        <v>47</v>
       </c>
       <c r="B13" s="1" t="s">
         <v>21</v>
@@ -789,18 +1059,18 @@
       <c r="C13" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="D13" s="1"/>
-      <c r="E13" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="F13" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="G13" s="1"/>
-    </row>
-    <row r="14" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A14" s="3">
-        <v>13</v>
+      <c r="D13" s="4"/>
+      <c r="E13" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="F13" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="G13" s="4"/>
+    </row>
+    <row r="14" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A14" s="3" t="s">
+        <v>48</v>
       </c>
       <c r="B14" s="1" t="s">
         <v>22</v>
@@ -808,18 +1078,18 @@
       <c r="C14" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="D14" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="E14" s="1"/>
-      <c r="F14" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="G14" s="1"/>
-    </row>
-    <row r="15" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A15" s="3">
-        <v>14</v>
+      <c r="D14" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="E14" s="4"/>
+      <c r="F14" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="G14" s="4"/>
+    </row>
+    <row r="15" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A15" s="3" t="s">
+        <v>49</v>
       </c>
       <c r="B15" s="1" t="s">
         <v>23</v>
@@ -827,18 +1097,18 @@
       <c r="C15" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="D15" s="1"/>
-      <c r="E15" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="F15" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="G15" s="1"/>
-    </row>
-    <row r="16" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A16" s="3">
-        <v>15</v>
+      <c r="D15" s="4"/>
+      <c r="E15" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="F15" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="G15" s="4"/>
+    </row>
+    <row r="16" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A16" s="3" t="s">
+        <v>50</v>
       </c>
       <c r="B16" s="1" t="s">
         <v>24</v>
@@ -846,16 +1116,16 @@
       <c r="C16" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="D16" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="E16" s="1"/>
-      <c r="F16" s="1"/>
-      <c r="G16" s="1"/>
-    </row>
-    <row r="17" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A17" s="3">
-        <v>16</v>
+      <c r="D16" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="E16" s="4"/>
+      <c r="F16" s="4"/>
+      <c r="G16" s="4"/>
+    </row>
+    <row r="17" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A17" s="3" t="s">
+        <v>51</v>
       </c>
       <c r="B17" s="1" t="s">
         <v>25</v>
@@ -863,16 +1133,16 @@
       <c r="C17" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="D17" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="E17" s="1"/>
-      <c r="F17" s="1"/>
-      <c r="G17" s="1"/>
-    </row>
-    <row r="18" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A18" s="3">
-        <v>17</v>
+      <c r="D17" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="E17" s="4"/>
+      <c r="F17" s="4"/>
+      <c r="G17" s="4"/>
+    </row>
+    <row r="18" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A18" s="3" t="s">
+        <v>52</v>
       </c>
       <c r="B18" s="1" t="s">
         <v>26</v>
@@ -880,18 +1150,18 @@
       <c r="C18" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="D18" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="E18" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="F18" s="1"/>
-      <c r="G18" s="1"/>
-    </row>
-    <row r="19" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A19" s="3">
-        <v>18</v>
+      <c r="D18" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="E18" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="F18" s="4"/>
+      <c r="G18" s="4"/>
+    </row>
+    <row r="19" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A19" s="3" t="s">
+        <v>53</v>
       </c>
       <c r="B19" s="1" t="s">
         <v>27</v>
@@ -899,16 +1169,16 @@
       <c r="C19" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="D19" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="E19" s="1"/>
-      <c r="F19" s="1"/>
-      <c r="G19" s="1"/>
-    </row>
-    <row r="20" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A20" s="3">
-        <v>19</v>
+      <c r="D19" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="E19" s="4"/>
+      <c r="F19" s="4"/>
+      <c r="G19" s="4"/>
+    </row>
+    <row r="20" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A20" s="3" t="s">
+        <v>54</v>
       </c>
       <c r="B20" s="1" t="s">
         <v>28</v>
@@ -916,16 +1186,16 @@
       <c r="C20" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="D20" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="E20" s="1"/>
-      <c r="F20" s="1"/>
-      <c r="G20" s="1"/>
-    </row>
-    <row r="21" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A21" s="3">
-        <v>20</v>
+      <c r="D20" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="E20" s="4"/>
+      <c r="F20" s="4"/>
+      <c r="G20" s="4"/>
+    </row>
+    <row r="21" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A21" s="3" t="s">
+        <v>55</v>
       </c>
       <c r="B21" s="1" t="s">
         <v>29</v>
@@ -933,16 +1203,16 @@
       <c r="C21" s="3" t="s">
         <v>30</v>
       </c>
-      <c r="D21" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="E21" s="1"/>
-      <c r="F21" s="1"/>
-      <c r="G21" s="1"/>
-    </row>
-    <row r="22" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A22" s="3">
-        <v>21</v>
+      <c r="D21" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="E21" s="4"/>
+      <c r="F21" s="4"/>
+      <c r="G21" s="4"/>
+    </row>
+    <row r="22" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A22" s="3" t="s">
+        <v>56</v>
       </c>
       <c r="B22" s="1" t="s">
         <v>31</v>
@@ -950,20 +1220,20 @@
       <c r="C22" s="3" t="s">
         <v>30</v>
       </c>
-      <c r="D22" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="E22" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="F22" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="G22" s="1"/>
-    </row>
-    <row r="23" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A23" s="3">
-        <v>22</v>
+      <c r="D22" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="E22" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="F22" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="G22" s="4"/>
+    </row>
+    <row r="23" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A23" s="3" t="s">
+        <v>57</v>
       </c>
       <c r="B23" s="1" t="s">
         <v>32</v>
@@ -971,18 +1241,18 @@
       <c r="C23" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="D23" s="1"/>
-      <c r="E23" s="1"/>
-      <c r="F23" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="G23" s="1" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="24" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A24" s="3">
-        <v>23</v>
+      <c r="D23" s="4"/>
+      <c r="E23" s="4"/>
+      <c r="F23" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="G23" s="4" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A24" s="3" t="s">
+        <v>58</v>
       </c>
       <c r="B24" s="1" t="s">
         <v>33</v>
@@ -990,18 +1260,18 @@
       <c r="C24" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="D24" s="1"/>
-      <c r="E24" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="F24" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="G24" s="1"/>
-    </row>
-    <row r="25" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A25" s="3">
-        <v>24</v>
+      <c r="D24" s="4"/>
+      <c r="E24" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="F24" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="G24" s="4"/>
+    </row>
+    <row r="25" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A25" s="3" t="s">
+        <v>59</v>
       </c>
       <c r="B25" s="1" t="s">
         <v>34</v>
@@ -1009,18 +1279,18 @@
       <c r="C25" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="D25" s="1"/>
-      <c r="E25" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="F25" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="G25" s="1"/>
-    </row>
-    <row r="26" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A26" s="3">
-        <v>25</v>
+      <c r="D25" s="4"/>
+      <c r="E25" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="F25" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="G25" s="4"/>
+    </row>
+    <row r="26" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A26" s="3" t="s">
+        <v>60</v>
       </c>
       <c r="B26" s="1" t="s">
         <v>35</v>
@@ -1028,18 +1298,22 @@
       <c r="C26" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="D26" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="E26" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="F26" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="G26" s="1"/>
+      <c r="D26" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="E26" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="F26" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="G26" s="4"/>
     </row>
   </sheetData>
+  <phoneticPr fontId="4" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <tableParts count="1">
+    <tablePart r:id="rId1"/>
+  </tableParts>
 </worksheet>
 </file>